--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74507A2-0A54-4DAF-A3A6-209F2F6B8E37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B270B5A0-ED3E-4B3E-9BFC-632391445428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="5115" windowWidth="21600" windowHeight="11385" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Task Description</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Bug fixes en tests</t>
+  </si>
+  <si>
+    <t>Verdediging voorbereiden</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,6 +2571,12 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D34" s="14">
         <v>0</v>
       </c>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B270B5A0-ED3E-4B3E-9BFC-632391445428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D35010-AA01-4B76-9B2D-435A281591B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -356,7 +347,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,7 +370,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -627,10 +618,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1606,7 +1597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1904,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,12 +2115,14 @@
         <v>11</v>
       </c>
       <c r="D6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
@@ -2141,12 +2134,14 @@
         <v>11</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
@@ -2163,7 +2158,9 @@
       <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
@@ -2178,9 +2175,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
+        <v>4</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
@@ -2192,12 +2191,14 @@
         <v>21</v>
       </c>
       <c r="D10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
@@ -2510,6 +2511,9 @@
       <c r="E29" s="13">
         <v>0</v>
       </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
@@ -2524,6 +2528,9 @@
       <c r="E30" s="13">
         <v>0</v>
       </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -2555,6 +2562,9 @@
       <c r="E32" s="13">
         <v>0</v>
       </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -2569,6 +2579,9 @@
       <c r="E33" s="13">
         <v>0</v>
       </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -2581,6 +2594,9 @@
         <v>0</v>
       </c>
       <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2603,11 +2619,11 @@
       </c>
       <c r="E36" s="13">
         <f>SUM(E6:E35)</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" ref="F36:Q36" si="1">SUM(F6:F35)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D35010-AA01-4B76-9B2D-435A281591B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22B418-9B2C-45CF-99A1-8377F171E2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,10 +618,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2619,11 +2619,11 @@
       </c>
       <c r="E36" s="13">
         <f>SUM(E6:E35)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" ref="F36:Q36" si="1">SUM(F6:F35)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22B418-9B2C-45CF-99A1-8377F171E2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44165557-5304-478A-A7FD-DC4743D413DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -347,7 +356,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -370,7 +379,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -621,7 +630,7 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1597,7 +1606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1896,7 +1905,7 @@
   <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
@@ -2178,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -2623,7 +2632,7 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" ref="F36:Q36" si="1">SUM(F6:F35)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22B418-9B2C-45CF-99A1-8377F171E2A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26000FA0-600D-481D-A778-6789A5710110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,9 +456,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -624,7 +622,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1896,7 +1894,7 @@
   <dimension ref="A1:AS36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2121,9 @@
       <c r="F6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -2142,7 +2142,9 @@
       <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -2161,7 +2163,9 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -2180,7 +2184,9 @@
       <c r="F9" s="13">
         <v>4</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13">
+        <v>4</v>
+      </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2199,7 +2205,9 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2228,7 +2236,9 @@
       <c r="F12" s="13">
         <v>2</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2247,7 +2257,9 @@
       <c r="F13" s="13">
         <v>3</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>3</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -2266,7 +2278,9 @@
       <c r="F14" s="13">
         <v>2</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2309,9 @@
       <c r="F16" s="13">
         <v>2</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2314,7 +2330,9 @@
       <c r="F17" s="13">
         <v>1</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2333,7 +2351,9 @@
       <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2352,7 +2372,9 @@
       <c r="F19" s="13">
         <v>1</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2382,6 +2404,9 @@
       <c r="F21" s="13">
         <v>2</v>
       </c>
+      <c r="G21" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
@@ -2397,6 +2422,9 @@
         <v>2</v>
       </c>
       <c r="F22" s="13">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2427,7 +2455,9 @@
       <c r="F24" s="13">
         <v>6</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13">
+        <v>6</v>
+      </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2446,7 +2476,9 @@
       <c r="F25" s="13">
         <v>4</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>4</v>
+      </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2465,7 +2497,9 @@
       <c r="F26" s="13">
         <v>4</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2484,7 +2518,9 @@
       <c r="F27" s="13">
         <v>4</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13">
+        <v>4</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
@@ -2514,6 +2550,9 @@
       <c r="F29" s="13">
         <v>0</v>
       </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
@@ -2531,6 +2570,9 @@
       <c r="F30" s="13">
         <v>2</v>
       </c>
+      <c r="G30" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -2548,6 +2590,9 @@
       <c r="F31" s="13">
         <v>2</v>
       </c>
+      <c r="G31" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -2565,6 +2610,9 @@
       <c r="F32" s="13">
         <v>0</v>
       </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -2582,6 +2630,9 @@
       <c r="F33" s="13">
         <v>0</v>
       </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -2597,6 +2648,9 @@
         <v>0</v>
       </c>
       <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2627,7 +2681,7 @@
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44165557-5304-478A-A7FD-DC4743D413DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA56368-8EDB-4FA5-A530-B1EF5D189103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Task Description</t>
   </si>
@@ -157,6 +148,9 @@
   </si>
   <si>
     <t>Verdediging voorbereiden</t>
+  </si>
+  <si>
+    <t>Maak Place View</t>
   </si>
 </sst>
 </file>
@@ -356,7 +350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -622,18 +616,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$36:$AS$36</c:f>
+              <c:f>Sheet1!$E$37:$AS$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1570,13 +1564,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>585524</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>186524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1606,7 +1600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1902,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2126,9 @@
       <c r="F6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -2151,7 +2147,9 @@
       <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -2170,7 +2168,9 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,9 @@
       <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -2208,7 +2210,9 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2241,9 @@
       <c r="F12" s="13">
         <v>2</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -2256,79 +2262,87 @@
       <c r="F13" s="13">
         <v>3</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="13">
         <v>2</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13">
-        <v>2</v>
-      </c>
-      <c r="F16" s="13">
-        <v>2</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="T16" s="21"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
       </c>
       <c r="E17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
@@ -2342,15 +2356,17 @@
       <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
@@ -2361,40 +2377,46 @@
       <c r="F19" s="13">
         <v>1</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="T20" s="21"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2</v>
-      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="T21" s="21"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>12</v>
@@ -2408,40 +2430,44 @@
       <c r="F22" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
-        <v>6</v>
-      </c>
-      <c r="F24" s="13">
-        <v>6</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>12</v>
@@ -2450,20 +2476,22 @@
         <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="13">
-        <v>4</v>
-      </c>
-      <c r="G25" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="G25" s="13">
+        <v>6</v>
+      </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
@@ -2474,12 +2502,14 @@
       <c r="F26" s="13">
         <v>4</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>11</v>
@@ -2493,57 +2523,66 @@
       <c r="F27" s="13">
         <v>4</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="13">
+        <v>4</v>
+      </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4</v>
+      </c>
+      <c r="F28" s="13">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13">
+        <v>4</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="T28" s="21"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="14">
         <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
@@ -2552,35 +2591,41 @@
         <v>0</v>
       </c>
       <c r="E31" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="13">
+        <v>4</v>
+      </c>
+      <c r="G31" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="14">
         <v>0</v>
       </c>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G32" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
@@ -2589,12 +2634,15 @@
         <v>0</v>
       </c>
       <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>38</v>
@@ -2608,186 +2656,209 @@
       <c r="F34" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="T35" s="21"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="14">
-        <v>0</v>
-      </c>
-      <c r="E36" s="13">
-        <f>SUM(E6:E35)</f>
-        <v>53</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" ref="F36:Q36" si="1">SUM(F6:F35)</f>
-        <v>38</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <f>SUM(E6:E36)</f>
+        <v>58</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
+        <v>42</v>
+      </c>
+      <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
+        <v>35</v>
+      </c>
+      <c r="H37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q37" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R36" s="13">
-        <f t="shared" ref="R36" si="2">SUM(R6:R35)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="13">
-        <f t="shared" ref="S36" si="3">SUM(S6:S35)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="13">
-        <f t="shared" ref="T36" si="4">SUM(T6:T35)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="13">
-        <f t="shared" ref="U36" si="5">SUM(U6:U35)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="13">
-        <f t="shared" ref="V36" si="6">SUM(V6:V35)</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13">
-        <f t="shared" ref="W36" si="7">SUM(W6:W35)</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="13">
-        <f t="shared" ref="X36" si="8">SUM(X6:X35)</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="13">
-        <f t="shared" ref="Y36" si="9">SUM(Y6:Y35)</f>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="13">
-        <f t="shared" ref="Z36" si="10">SUM(Z6:Z35)</f>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="13">
-        <f t="shared" ref="AA36" si="11">SUM(AA6:AA35)</f>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="13">
-        <f t="shared" ref="AB36" si="12">SUM(AB6:AB35)</f>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13">
-        <f t="shared" ref="AC36" si="13">SUM(AC6:AC35)</f>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="13">
-        <f t="shared" ref="AD36" si="14">SUM(AD6:AD35)</f>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="13">
-        <f t="shared" ref="AE36" si="15">SUM(AE6:AE35)</f>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="13">
-        <f t="shared" ref="AF36" si="16">SUM(AF6:AF35)</f>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="13">
-        <f t="shared" ref="AG36" si="17">SUM(AG6:AG35)</f>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="13">
-        <f t="shared" ref="AH36" si="18">SUM(AH6:AH35)</f>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="13">
-        <f t="shared" ref="AI36" si="19">SUM(AI6:AI35)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="13">
-        <f t="shared" ref="AJ36" si="20">SUM(AJ6:AJ35)</f>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="13">
-        <f t="shared" ref="AK36" si="21">SUM(AK6:AK35)</f>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="13">
-        <f t="shared" ref="AL36" si="22">SUM(AL6:AL35)</f>
-        <v>0</v>
-      </c>
-      <c r="AM36" s="13">
-        <f t="shared" ref="AM36" si="23">SUM(AM6:AM35)</f>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="13">
-        <f t="shared" ref="AN36" si="24">SUM(AN6:AN35)</f>
-        <v>0</v>
-      </c>
-      <c r="AO36" s="13">
-        <f t="shared" ref="AO36" si="25">SUM(AO6:AO35)</f>
-        <v>0</v>
-      </c>
-      <c r="AP36" s="13">
-        <f t="shared" ref="AP36" si="26">SUM(AP6:AP35)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="13">
-        <f t="shared" ref="AQ36" si="27">SUM(AQ6:AQ35)</f>
-        <v>0</v>
-      </c>
-      <c r="AR36" s="13">
-        <f t="shared" ref="AR36" si="28">SUM(AR6:AR35)</f>
-        <v>0</v>
-      </c>
-      <c r="AS36" s="13">
-        <f t="shared" ref="AS36" si="29">SUM(AS6:AS35)</f>
+      <c r="R37" s="13">
+        <f t="shared" ref="R37" si="2">SUM(R6:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" ref="S37" si="3">SUM(S6:S36)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="13">
+        <f t="shared" ref="T37" si="4">SUM(T6:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="13">
+        <f t="shared" ref="U37" si="5">SUM(U6:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="13">
+        <f t="shared" ref="V37" si="6">SUM(V6:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="13">
+        <f t="shared" ref="W37" si="7">SUM(W6:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="13">
+        <f t="shared" ref="X37" si="8">SUM(X6:X36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="13">
+        <f t="shared" ref="Y37" si="9">SUM(Y6:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="13">
+        <f t="shared" ref="Z37" si="10">SUM(Z6:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="13">
+        <f t="shared" ref="AA37" si="11">SUM(AA6:AA36)</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="13">
+        <f t="shared" ref="AB37" si="12">SUM(AB6:AB36)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="13">
+        <f t="shared" ref="AC37" si="13">SUM(AC6:AC36)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="13">
+        <f t="shared" ref="AD37" si="14">SUM(AD6:AD36)</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="13">
+        <f t="shared" ref="AE37" si="15">SUM(AE6:AE36)</f>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="13">
+        <f t="shared" ref="AF37" si="16">SUM(AF6:AF36)</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="13">
+        <f t="shared" ref="AG37" si="17">SUM(AG6:AG36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="13">
+        <f t="shared" ref="AH37" si="18">SUM(AH6:AH36)</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="13">
+        <f t="shared" ref="AI37" si="19">SUM(AI6:AI36)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="13">
+        <f t="shared" ref="AJ37" si="20">SUM(AJ6:AJ36)</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="13">
+        <f t="shared" ref="AK37" si="21">SUM(AK6:AK36)</f>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="13">
+        <f t="shared" ref="AL37" si="22">SUM(AL6:AL36)</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="13">
+        <f t="shared" ref="AM37" si="23">SUM(AM6:AM36)</f>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="13">
+        <f t="shared" ref="AN37" si="24">SUM(AN6:AN36)</f>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="13">
+        <f t="shared" ref="AO37" si="25">SUM(AO6:AO36)</f>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="13">
+        <f t="shared" ref="AP37" si="26">SUM(AP6:AP36)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="13">
+        <f t="shared" ref="AQ37" si="27">SUM(AQ6:AQ36)</f>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="13">
+        <f t="shared" ref="AR37" si="28">SUM(AR6:AR36)</f>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="13">
+        <f t="shared" ref="AS37" si="29">SUM(AS6:AS36)</f>
         <v>0</v>
       </c>
     </row>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA56368-8EDB-4FA5-A530-B1EF5D189103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4C18B-6A66-43A6-B146-BB810156F05A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="21600" windowHeight="11865" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="13">
         <v>4</v>
@@ -2275,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4C18B-6A66-43A6-B146-BB810156F05A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048EECD-6FA1-4F8A-88C0-A6ED83E1DA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="21600" windowHeight="11865" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -350,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +382,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -621,22 +630,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1600,7 +1609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1898,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2138,15 @@
       <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
@@ -2150,7 +2167,15 @@
       <c r="G7" s="13">
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
@@ -2171,7 +2196,15 @@
       <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
@@ -2181,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="13">
         <v>4</v>
@@ -2192,7 +2225,15 @@
       <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
@@ -2213,7 +2254,15 @@
       <c r="G10" s="13">
         <v>0</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -2233,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="13">
         <v>2</v>
@@ -2244,7 +2293,15 @@
       <c r="G12" s="13">
         <v>2</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
@@ -2265,7 +2322,15 @@
       <c r="G13" s="13">
         <v>0</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
@@ -2286,7 +2351,15 @@
       <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
@@ -2307,7 +2380,12 @@
       <c r="G15" s="13">
         <v>2</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>2</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -2338,7 +2416,12 @@
       <c r="G17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>2</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
@@ -2348,18 +2431,26 @@
         <v>12</v>
       </c>
       <c r="D18" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2</v>
+      </c>
+      <c r="J18" s="13">
         <v>1</v>
       </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
@@ -2369,18 +2460,26 @@
         <v>12</v>
       </c>
       <c r="D19" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2</v>
+      </c>
+      <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="F19" s="13">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
@@ -2401,7 +2500,12 @@
       <c r="G20" s="13">
         <v>1</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -2433,6 +2537,15 @@
       <c r="G22" s="13">
         <v>2</v>
       </c>
+      <c r="H22" s="13">
+        <v>2</v>
+      </c>
+      <c r="I22" s="13">
+        <v>2</v>
+      </c>
+      <c r="J22" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
@@ -2451,6 +2564,15 @@
         <v>2</v>
       </c>
       <c r="G23" s="13">
+        <v>2</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2</v>
+      </c>
+      <c r="I23" s="13">
+        <v>2</v>
+      </c>
+      <c r="J23" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2484,7 +2606,15 @@
       <c r="G25" s="13">
         <v>6</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13">
+        <v>6</v>
+      </c>
+      <c r="J25" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -2505,7 +2635,15 @@
       <c r="G26" s="13">
         <v>4</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>4</v>
+      </c>
+      <c r="I26" s="13">
+        <v>4</v>
+      </c>
+      <c r="J26" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
@@ -2526,7 +2664,15 @@
       <c r="G27" s="13">
         <v>4</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13">
+        <v>4</v>
+      </c>
+      <c r="I27" s="13">
+        <v>4</v>
+      </c>
+      <c r="J27" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
@@ -2547,8 +2693,15 @@
       <c r="G28" s="13">
         <v>4</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="H28" s="13">
+        <v>4</v>
+      </c>
+      <c r="I28" s="13">
+        <v>4</v>
+      </c>
+      <c r="J28" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -2579,6 +2732,15 @@
       <c r="G30" s="13">
         <v>0</v>
       </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -2599,6 +2761,15 @@
       <c r="G31" s="13">
         <v>2</v>
       </c>
+      <c r="H31" s="13">
+        <v>2</v>
+      </c>
+      <c r="I31" s="13">
+        <v>2</v>
+      </c>
+      <c r="J31" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -2619,6 +2790,15 @@
       <c r="G32" s="13">
         <v>2</v>
       </c>
+      <c r="H32" s="13">
+        <v>2</v>
+      </c>
+      <c r="I32" s="13">
+        <v>2</v>
+      </c>
+      <c r="J32" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -2631,13 +2811,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2</v>
+      </c>
+      <c r="I33" s="13">
+        <v>2</v>
+      </c>
+      <c r="J33" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
@@ -2651,13 +2840,22 @@
         <v>0</v>
       </c>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H34" s="13">
+        <v>4</v>
+      </c>
+      <c r="I34" s="13">
+        <v>4</v>
+      </c>
+      <c r="J34" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
@@ -2671,13 +2869,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G35" s="13">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H35" s="13">
+        <v>6</v>
+      </c>
+      <c r="I35" s="13">
+        <v>6</v>
+      </c>
+      <c r="J35" s="13">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2699,27 +2906,27 @@
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
+        <v>49</v>
       </c>
       <c r="I37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
@@ -2750,115 +2957,115 @@
         <v>0</v>
       </c>
       <c r="R37" s="13">
-        <f t="shared" ref="R37" si="2">SUM(R6:R36)</f>
+        <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>
         <v>0</v>
       </c>
       <c r="S37" s="13">
-        <f t="shared" ref="S37" si="3">SUM(S6:S36)</f>
+        <f t="shared" ref="S37" si="4">SUM(S6:S36)</f>
         <v>0</v>
       </c>
       <c r="T37" s="13">
-        <f t="shared" ref="T37" si="4">SUM(T6:T36)</f>
+        <f t="shared" ref="T37" si="5">SUM(T6:T36)</f>
         <v>0</v>
       </c>
       <c r="U37" s="13">
-        <f t="shared" ref="U37" si="5">SUM(U6:U36)</f>
+        <f t="shared" ref="U37" si="6">SUM(U6:U36)</f>
         <v>0</v>
       </c>
       <c r="V37" s="13">
-        <f t="shared" ref="V37" si="6">SUM(V6:V36)</f>
+        <f t="shared" ref="V37" si="7">SUM(V6:V36)</f>
         <v>0</v>
       </c>
       <c r="W37" s="13">
-        <f t="shared" ref="W37" si="7">SUM(W6:W36)</f>
+        <f t="shared" ref="W37" si="8">SUM(W6:W36)</f>
         <v>0</v>
       </c>
       <c r="X37" s="13">
-        <f t="shared" ref="X37" si="8">SUM(X6:X36)</f>
+        <f t="shared" ref="X37" si="9">SUM(X6:X36)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="13">
-        <f t="shared" ref="Y37" si="9">SUM(Y6:Y36)</f>
+        <f t="shared" ref="Y37" si="10">SUM(Y6:Y36)</f>
         <v>0</v>
       </c>
       <c r="Z37" s="13">
-        <f t="shared" ref="Z37" si="10">SUM(Z6:Z36)</f>
+        <f t="shared" ref="Z37" si="11">SUM(Z6:Z36)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="13">
-        <f t="shared" ref="AA37" si="11">SUM(AA6:AA36)</f>
+        <f t="shared" ref="AA37" si="12">SUM(AA6:AA36)</f>
         <v>0</v>
       </c>
       <c r="AB37" s="13">
-        <f t="shared" ref="AB37" si="12">SUM(AB6:AB36)</f>
+        <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="13">
-        <f t="shared" ref="AC37" si="13">SUM(AC6:AC36)</f>
+        <f t="shared" ref="AC37" si="14">SUM(AC6:AC36)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="13">
-        <f t="shared" ref="AD37" si="14">SUM(AD6:AD36)</f>
+        <f t="shared" ref="AD37" si="15">SUM(AD6:AD36)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="13">
-        <f t="shared" ref="AE37" si="15">SUM(AE6:AE36)</f>
+        <f t="shared" ref="AE37" si="16">SUM(AE6:AE36)</f>
         <v>0</v>
       </c>
       <c r="AF37" s="13">
-        <f t="shared" ref="AF37" si="16">SUM(AF6:AF36)</f>
+        <f t="shared" ref="AF37" si="17">SUM(AF6:AF36)</f>
         <v>0</v>
       </c>
       <c r="AG37" s="13">
-        <f t="shared" ref="AG37" si="17">SUM(AG6:AG36)</f>
+        <f t="shared" ref="AG37" si="18">SUM(AG6:AG36)</f>
         <v>0</v>
       </c>
       <c r="AH37" s="13">
-        <f t="shared" ref="AH37" si="18">SUM(AH6:AH36)</f>
+        <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>
         <v>0</v>
       </c>
       <c r="AI37" s="13">
-        <f t="shared" ref="AI37" si="19">SUM(AI6:AI36)</f>
+        <f t="shared" ref="AI37" si="20">SUM(AI6:AI36)</f>
         <v>0</v>
       </c>
       <c r="AJ37" s="13">
-        <f t="shared" ref="AJ37" si="20">SUM(AJ6:AJ36)</f>
+        <f t="shared" ref="AJ37" si="21">SUM(AJ6:AJ36)</f>
         <v>0</v>
       </c>
       <c r="AK37" s="13">
-        <f t="shared" ref="AK37" si="21">SUM(AK6:AK36)</f>
+        <f t="shared" ref="AK37" si="22">SUM(AK6:AK36)</f>
         <v>0</v>
       </c>
       <c r="AL37" s="13">
-        <f t="shared" ref="AL37" si="22">SUM(AL6:AL36)</f>
+        <f t="shared" ref="AL37" si="23">SUM(AL6:AL36)</f>
         <v>0</v>
       </c>
       <c r="AM37" s="13">
-        <f t="shared" ref="AM37" si="23">SUM(AM6:AM36)</f>
+        <f t="shared" ref="AM37" si="24">SUM(AM6:AM36)</f>
         <v>0</v>
       </c>
       <c r="AN37" s="13">
-        <f t="shared" ref="AN37" si="24">SUM(AN6:AN36)</f>
+        <f t="shared" ref="AN37" si="25">SUM(AN6:AN36)</f>
         <v>0</v>
       </c>
       <c r="AO37" s="13">
-        <f t="shared" ref="AO37" si="25">SUM(AO6:AO36)</f>
+        <f t="shared" ref="AO37" si="26">SUM(AO6:AO36)</f>
         <v>0</v>
       </c>
       <c r="AP37" s="13">
-        <f t="shared" ref="AP37" si="26">SUM(AP6:AP36)</f>
+        <f t="shared" ref="AP37" si="27">SUM(AP6:AP36)</f>
         <v>0</v>
       </c>
       <c r="AQ37" s="13">
-        <f t="shared" ref="AQ37" si="27">SUM(AQ6:AQ36)</f>
+        <f t="shared" ref="AQ37" si="28">SUM(AQ6:AQ36)</f>
         <v>0</v>
       </c>
       <c r="AR37" s="13">
-        <f t="shared" ref="AR37" si="28">SUM(AR6:AR36)</f>
+        <f t="shared" ref="AR37" si="29">SUM(AR6:AR36)</f>
         <v>0</v>
       </c>
       <c r="AS37" s="13">
-        <f t="shared" ref="AS37" si="29">SUM(AS6:AS36)</f>
+        <f t="shared" ref="AS37" si="30">SUM(AS6:AS36)</f>
         <v>0</v>
       </c>
     </row>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048EECD-6FA1-4F8A-88C0-A6ED83E1DA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC0F12-354C-4EE2-B071-C8A0C17AFC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="21600" windowHeight="11865" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -312,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,9 +348,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,7 +376,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -645,7 +639,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1609,7 +1603,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1908,7 +1902,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,6 +2380,9 @@
       <c r="I15" s="13">
         <v>2</v>
       </c>
+      <c r="J15" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -2926,7 +2923,7 @@
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC0F12-354C-4EE2-B071-C8A0C17AFC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAEC11-4445-4A3D-9969-2D4D4D6837AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="21600" windowHeight="11865" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Task Description</t>
   </si>
@@ -88,9 +97,6 @@
   </si>
   <si>
     <t>Maak main window</t>
-  </si>
-  <si>
-    <t>Eerste klaar</t>
   </si>
   <si>
     <t>Maak places</t>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,12 +354,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,7 +379,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -624,22 +627,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1603,7 +1606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1902,7 +1905,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,6 +2144,111 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
@@ -2170,6 +2278,111 @@
       <c r="J7" s="13">
         <v>0</v>
       </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
@@ -2199,6 +2412,111 @@
       <c r="J8" s="13">
         <v>0</v>
       </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
@@ -2228,13 +2546,118 @@
       <c r="J9" s="13">
         <v>0</v>
       </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
@@ -2255,6 +2678,111 @@
         <v>0</v>
       </c>
       <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2270,28 +2798,28 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="14">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="13">
         <v>1</v>
@@ -2299,7 +2827,7 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>11</v>
@@ -2323,12 +2851,117 @@
         <v>0</v>
       </c>
       <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>11</v>
@@ -2352,12 +2985,117 @@
         <v>0</v>
       </c>
       <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>12</v>
@@ -2366,22 +3104,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="13">
-        <v>2</v>
-      </c>
-      <c r="J15" s="22">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J15" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2396,7 +3134,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>11</v>
@@ -2422,65 +3160,65 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>11</v>
@@ -2517,10 +3255,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
@@ -2546,10 +3284,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
@@ -2586,7 +3324,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>12</v>
@@ -2615,7 +3353,7 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>12</v>
@@ -2644,7 +3382,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>11</v>
@@ -2673,7 +3411,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>11</v>
@@ -2712,7 +3450,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>12</v>
@@ -2721,27 +3459,27 @@
         <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>11</v>
@@ -2770,7 +3508,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>11</v>
@@ -2799,7 +3537,7 @@
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>12</v>
@@ -2828,10 +3566,10 @@
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="D34" s="14">
         <v>0</v>
@@ -2857,10 +3595,10 @@
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="14">
         <v>0</v>
@@ -2899,31 +3637,32 @@
         <v>9</v>
       </c>
       <c r="D37" s="14">
-        <v>0</v>
+        <f>SUM(D5:D35)/25</f>
+        <v>0.33</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AAEC11-4445-4A3D-9969-2D4D4D6837AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2799701-9771-4A04-8709-4AB0C7FE75C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,19 +627,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50</c:v>
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,22 +2804,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="13">
         <v>1</v>
@@ -3638,27 +3638,27 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.33</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2799701-9771-4A04-8709-4AB0C7FE75C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805690E-C62B-4B59-8A37-6746DEC6CF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -309,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,9 +345,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -627,19 +621,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50</c:v>
@@ -1606,7 +1600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1904,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,7 +3134,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="13">
         <v>2</v>
@@ -3156,6 +3150,9 @@
       </c>
       <c r="I17" s="13">
         <v>2</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3224,22 +3221,25 @@
         <v>11</v>
       </c>
       <c r="D20" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3638,27 +3638,27 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.33200000000000002</v>
+        <v>0.41200000000000003</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0805690E-C62B-4B59-8A37-6746DEC6CF25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8B0F0-71A7-4753-9F9C-DC2F4733AAD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -350,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +382,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1600,7 +1609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1898,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2807,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="13">
         <v>5</v>
@@ -2817,6 +2826,111 @@
       </c>
       <c r="J12" s="13">
         <v>1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -3126,7 +3240,7 @@
       <c r="E16" s="21"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
@@ -3154,8 +3268,113 @@
       <c r="J17" s="22">
         <v>0</v>
       </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>0</v>
+      </c>
+      <c r="R17" s="22">
+        <v>0</v>
+      </c>
+      <c r="S17" s="22">
+        <v>0</v>
+      </c>
+      <c r="T17" s="22">
+        <v>0</v>
+      </c>
+      <c r="U17" s="22">
+        <v>0</v>
+      </c>
+      <c r="V17" s="22">
+        <v>0</v>
+      </c>
+      <c r="W17" s="22">
+        <v>0</v>
+      </c>
+      <c r="X17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
@@ -3213,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -3241,8 +3460,113 @@
       <c r="J20" s="13">
         <v>0</v>
       </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>13</v>
@@ -3253,7 +3577,7 @@
       <c r="F21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
@@ -3282,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>29</v>
       </c>
@@ -3311,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>14</v>
@@ -3322,7 +3646,7 @@
       <c r="F24" s="21"/>
       <c r="T24" s="21"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
@@ -3380,7 +3704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>31</v>
       </c>
@@ -3409,7 +3733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>33</v>
       </c>
@@ -3438,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
         <v>10</v>
@@ -3448,7 +3772,7 @@
       <c r="E29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>38</v>
       </c>
@@ -3477,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
@@ -3638,7 +3962,7 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.41200000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8B0F0-71A7-4753-9F9C-DC2F4733AAD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D6643-8599-44FB-BF6C-9A43092DD26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -359,7 +350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -630,25 +621,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1609,7 +1600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1907,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3229,6 +3220,9 @@
       <c r="J15" s="13">
         <v>3</v>
       </c>
+      <c r="K15" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -3402,6 +3396,9 @@
       <c r="J18" s="13">
         <v>3</v>
       </c>
+      <c r="K18" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
@@ -3429,6 +3426,9 @@
         <v>4</v>
       </c>
       <c r="J19" s="13">
+        <v>3</v>
+      </c>
+      <c r="K19" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3585,25 +3585,130 @@
         <v>11</v>
       </c>
       <c r="D22" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J22" s="13">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
@@ -3614,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="13">
         <v>2</v>
@@ -3633,6 +3738,111 @@
       </c>
       <c r="J23" s="13">
         <v>2</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3674,6 +3884,9 @@
       <c r="J25" s="13">
         <v>6</v>
       </c>
+      <c r="K25" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -3703,6 +3916,9 @@
       <c r="J26" s="13">
         <v>4</v>
       </c>
+      <c r="K26" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
@@ -3732,6 +3948,9 @@
       <c r="J27" s="13">
         <v>4</v>
       </c>
+      <c r="K27" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
@@ -3760,6 +3979,9 @@
       </c>
       <c r="J28" s="13">
         <v>4</v>
+      </c>
+      <c r="K28" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3800,6 +4022,9 @@
       <c r="J30" s="13">
         <v>2</v>
       </c>
+      <c r="K30" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -3812,22 +4037,25 @@
         <v>0</v>
       </c>
       <c r="E31" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K31" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -3858,6 +4086,9 @@
       <c r="J32" s="13">
         <v>2</v>
       </c>
+      <c r="K32" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -3887,6 +4118,9 @@
       <c r="J33" s="13">
         <v>2</v>
       </c>
+      <c r="K33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -3916,6 +4150,9 @@
       <c r="J34" s="13">
         <v>4</v>
       </c>
+      <c r="K34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -3943,6 +4180,9 @@
         <v>6</v>
       </c>
       <c r="J35" s="13">
+        <v>6</v>
+      </c>
+      <c r="K35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -3962,35 +4202,35 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D6643-8599-44FB-BF6C-9A43092DD26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF9BE1-EF3E-4E73-9125-DACF009CECE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -350,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +382,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -621,28 +630,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1600,7 +1609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1898,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,28 +3209,31 @@
         <v>12</v>
       </c>
       <c r="D15" s="14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="13">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="13">
         <v>4</v>
@@ -3398,6 +3410,9 @@
       </c>
       <c r="K18" s="13">
         <v>3</v>
+      </c>
+      <c r="L18" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -3408,7 +3423,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="13">
         <v>4</v>
@@ -3430,6 +3445,9 @@
       </c>
       <c r="K19" s="13">
         <v>3</v>
+      </c>
+      <c r="L19" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -3887,6 +3905,9 @@
       <c r="K25" s="13">
         <v>6</v>
       </c>
+      <c r="L25" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -3919,6 +3940,9 @@
       <c r="K26" s="13">
         <v>4</v>
       </c>
+      <c r="L26" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
@@ -3928,7 +3952,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="13">
         <v>4</v>
@@ -3960,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E28" s="13">
         <v>4</v>
@@ -4005,24 +4029,27 @@
         <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="13">
+        <v>3</v>
+      </c>
+      <c r="L30" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4066,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="13">
         <v>5</v>
@@ -4087,6 +4114,9 @@
         <v>2</v>
       </c>
       <c r="K32" s="13">
+        <v>2</v>
+      </c>
+      <c r="L32" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4121,6 +4151,9 @@
       <c r="K33" s="13">
         <v>2</v>
       </c>
+      <c r="L33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -4153,6 +4186,9 @@
       <c r="K34" s="13">
         <v>4</v>
       </c>
+      <c r="L34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -4183,6 +4219,9 @@
         <v>6</v>
       </c>
       <c r="K35" s="13">
+        <v>6</v>
+      </c>
+      <c r="L35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -4202,39 +4241,39 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D6643-8599-44FB-BF6C-9A43092DD26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAE24B-89C1-4429-BE21-667878AD95EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -642,7 +642,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,6 +3951,9 @@
       <c r="K27" s="13">
         <v>3</v>
       </c>
+      <c r="L27" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
@@ -3960,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="13">
         <v>4</v>
@@ -3982,6 +3985,9 @@
       </c>
       <c r="K28" s="13">
         <v>3</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4202,7 +4208,7 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
@@ -4234,7 +4240,7 @@
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF9BE1-EF3E-4E73-9125-DACF009CECE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD00D7D-0BFF-4FED-B616-307FC8232F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -630,31 +630,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,31 +3209,130 @@
         <v>12</v>
       </c>
       <c r="D15" s="14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K15" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L15" s="13">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="13">
         <v>4</v>
@@ -3413,6 +3512,105 @@
       </c>
       <c r="L18" s="13">
         <v>2</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -3423,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="13">
         <v>4</v>
@@ -3448,6 +3646,105 @@
       </c>
       <c r="L19" s="13">
         <v>2</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="13">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -3908,6 +4205,9 @@
       <c r="L25" s="13">
         <v>6</v>
       </c>
+      <c r="M25" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -3941,6 +4241,9 @@
         <v>4</v>
       </c>
       <c r="L26" s="13">
+        <v>4</v>
+      </c>
+      <c r="M26" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4029,28 +4332,28 @@
         <v>0</v>
       </c>
       <c r="E30" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" s="13">
+        <v>4</v>
+      </c>
+      <c r="K30" s="13">
+        <v>4</v>
+      </c>
+      <c r="L30" s="13">
         <v>3</v>
-      </c>
-      <c r="K30" s="13">
-        <v>3</v>
-      </c>
-      <c r="L30" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4064,25 +4367,28 @@
         <v>0</v>
       </c>
       <c r="E31" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="13">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L31" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -4119,6 +4425,9 @@
       <c r="L32" s="13">
         <v>2</v>
       </c>
+      <c r="M32" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -4154,6 +4463,9 @@
       <c r="L33" s="13">
         <v>2</v>
       </c>
+      <c r="M33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -4189,6 +4501,9 @@
       <c r="L34" s="13">
         <v>4</v>
       </c>
+      <c r="M34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -4222,6 +4537,9 @@
         <v>6</v>
       </c>
       <c r="L35" s="13">
+        <v>6</v>
+      </c>
+      <c r="M35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -4241,43 +4559,43 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD00D7D-0BFF-4FED-B616-307FC8232F43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA2AA8-EB35-4F41-BBB0-208CCDCFB685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -630,31 +630,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,6 +4278,12 @@
       <c r="K27" s="13">
         <v>3</v>
       </c>
+      <c r="L27" s="13">
+        <v>3</v>
+      </c>
+      <c r="M27" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
@@ -4309,6 +4315,12 @@
       </c>
       <c r="K28" s="13">
         <v>3</v>
+      </c>
+      <c r="L28" s="13">
+        <v>3</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4332,27 +4344,30 @@
         <v>0</v>
       </c>
       <c r="E30" s="13">
+        <v>8</v>
+      </c>
+      <c r="F30" s="13">
+        <v>8</v>
+      </c>
+      <c r="G30" s="13">
+        <v>8</v>
+      </c>
+      <c r="H30" s="13">
+        <v>8</v>
+      </c>
+      <c r="I30" s="13">
+        <v>8</v>
+      </c>
+      <c r="J30" s="13">
         <v>6</v>
       </c>
-      <c r="F30" s="13">
+      <c r="K30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="13">
-        <v>6</v>
-      </c>
-      <c r="H30" s="13">
-        <v>6</v>
-      </c>
-      <c r="I30" s="13">
-        <v>6</v>
-      </c>
-      <c r="J30" s="13">
-        <v>4</v>
-      </c>
-      <c r="K30" s="13">
-        <v>4</v>
-      </c>
       <c r="L30" s="13">
+        <v>5</v>
+      </c>
+      <c r="M30" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4367,27 +4382,30 @@
         <v>0</v>
       </c>
       <c r="E31" s="13">
+        <v>8</v>
+      </c>
+      <c r="F31" s="13">
+        <v>8</v>
+      </c>
+      <c r="G31" s="13">
         <v>6</v>
       </c>
-      <c r="F31" s="13">
+      <c r="H31" s="13">
         <v>6</v>
       </c>
-      <c r="G31" s="13">
-        <v>4</v>
-      </c>
-      <c r="H31" s="13">
-        <v>4</v>
-      </c>
       <c r="I31" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J31" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K31" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L31" s="13">
+        <v>6</v>
+      </c>
+      <c r="M31" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4563,39 +4581,39 @@
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA2AA8-EB35-4F41-BBB0-208CCDCFB685}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CDC000-7975-4015-8AFF-E9BAF6C9D56E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -359,7 +350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -630,43 +621,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>77</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1609,7 +1600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1908,7 +1899,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="R27" sqref="R27:AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,43 +3894,43 @@
         <v>1</v>
       </c>
       <c r="E22" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="13">
         <v>0</v>
@@ -4037,43 +4028,43 @@
         <v>1</v>
       </c>
       <c r="E23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="13">
         <v>0</v>
@@ -4208,6 +4199,18 @@
       <c r="M25" s="13">
         <v>6</v>
       </c>
+      <c r="N25" s="13">
+        <v>6</v>
+      </c>
+      <c r="O25" s="13">
+        <v>6</v>
+      </c>
+      <c r="P25" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -4246,6 +4249,18 @@
       <c r="M26" s="13">
         <v>4</v>
       </c>
+      <c r="N26" s="13">
+        <v>4</v>
+      </c>
+      <c r="O26" s="13">
+        <v>4</v>
+      </c>
+      <c r="P26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
@@ -4258,31 +4273,127 @@
         <v>0.25</v>
       </c>
       <c r="E27" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I27" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K27" s="13">
+        <v>5</v>
+      </c>
+      <c r="L27" s="13">
+        <v>5</v>
+      </c>
+      <c r="M27" s="13">
         <v>3</v>
       </c>
-      <c r="L27" s="13">
+      <c r="N27" s="13">
         <v>3</v>
       </c>
-      <c r="M27" s="13">
+      <c r="O27" s="13">
+        <v>3</v>
+      </c>
+      <c r="P27" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="13">
         <v>1</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
@@ -4296,31 +4407,127 @@
         <v>0.25</v>
       </c>
       <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="13">
+        <v>5</v>
+      </c>
+      <c r="G28" s="13">
+        <v>5</v>
+      </c>
+      <c r="H28" s="13">
+        <v>5</v>
+      </c>
+      <c r="I28" s="13">
+        <v>5</v>
+      </c>
+      <c r="J28" s="13">
+        <v>5</v>
+      </c>
+      <c r="K28" s="13">
         <v>4</v>
       </c>
-      <c r="F28" s="13">
+      <c r="L28" s="13">
         <v>4</v>
       </c>
-      <c r="G28" s="13">
-        <v>4</v>
-      </c>
-      <c r="H28" s="13">
-        <v>4</v>
-      </c>
-      <c r="I28" s="13">
-        <v>4</v>
-      </c>
-      <c r="J28" s="13">
-        <v>4</v>
-      </c>
-      <c r="K28" s="13">
-        <v>3</v>
-      </c>
-      <c r="L28" s="13">
-        <v>3</v>
-      </c>
       <c r="M28" s="13">
+        <v>2</v>
+      </c>
+      <c r="N28" s="13">
+        <v>2</v>
+      </c>
+      <c r="O28" s="13">
+        <v>2</v>
+      </c>
+      <c r="P28" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="13">
         <v>1</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4370,6 +4577,18 @@
       <c r="M30" s="13">
         <v>3</v>
       </c>
+      <c r="N30" s="13">
+        <v>3</v>
+      </c>
+      <c r="O30" s="13">
+        <v>3</v>
+      </c>
+      <c r="P30" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -4382,30 +4601,42 @@
         <v>0</v>
       </c>
       <c r="E31" s="13">
+        <v>10</v>
+      </c>
+      <c r="F31" s="13">
+        <v>10</v>
+      </c>
+      <c r="G31" s="13">
         <v>8</v>
       </c>
-      <c r="F31" s="13">
+      <c r="H31" s="13">
         <v>8</v>
       </c>
-      <c r="G31" s="13">
+      <c r="I31" s="13">
+        <v>8</v>
+      </c>
+      <c r="J31" s="13">
+        <v>8</v>
+      </c>
+      <c r="K31" s="13">
+        <v>8</v>
+      </c>
+      <c r="L31" s="13">
+        <v>8</v>
+      </c>
+      <c r="M31" s="13">
         <v>6</v>
       </c>
-      <c r="H31" s="13">
+      <c r="N31" s="13">
         <v>6</v>
       </c>
-      <c r="I31" s="13">
-        <v>6</v>
-      </c>
-      <c r="J31" s="13">
-        <v>6</v>
-      </c>
-      <c r="K31" s="13">
-        <v>6</v>
-      </c>
-      <c r="L31" s="13">
-        <v>6</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="O31" s="13">
+        <v>4</v>
+      </c>
+      <c r="P31" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4446,6 +4677,18 @@
       <c r="M32" s="13">
         <v>2</v>
       </c>
+      <c r="N32" s="13">
+        <v>2</v>
+      </c>
+      <c r="O32" s="13">
+        <v>2</v>
+      </c>
+      <c r="P32" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -4484,6 +4727,18 @@
       <c r="M33" s="13">
         <v>2</v>
       </c>
+      <c r="N33" s="13">
+        <v>2</v>
+      </c>
+      <c r="O33" s="13">
+        <v>2</v>
+      </c>
+      <c r="P33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -4522,6 +4777,18 @@
       <c r="M34" s="13">
         <v>4</v>
       </c>
+      <c r="N34" s="13">
+        <v>4</v>
+      </c>
+      <c r="O34" s="13">
+        <v>4</v>
+      </c>
+      <c r="P34" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -4558,6 +4825,18 @@
         <v>6</v>
       </c>
       <c r="M35" s="13">
+        <v>6</v>
+      </c>
+      <c r="N35" s="13">
+        <v>6</v>
+      </c>
+      <c r="O35" s="13">
+        <v>6</v>
+      </c>
+      <c r="P35" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -4581,55 +4860,55 @@
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CDC000-7975-4015-8AFF-E9BAF6C9D56E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B94A4-0B5E-4349-BB25-B41ADD41F594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -350,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +382,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -621,43 +630,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1600,7 +1609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1899,7 +1908,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AS28"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,43 +3212,43 @@
         <v>1</v>
       </c>
       <c r="E15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L15" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="13">
         <v>0</v>
@@ -4860,55 +4869,55 @@
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B94A4-0B5E-4349-BB25-B41ADD41F594}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD827F91-19CC-4C26-AEE0-936D3188F39E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -669,34 +669,34 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,7 +4179,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="13">
         <v>6</v>
@@ -4219,6 +4219,36 @@
       </c>
       <c r="Q25" s="13">
         <v>6</v>
+      </c>
+      <c r="R25" s="13">
+        <v>4</v>
+      </c>
+      <c r="S25" s="13">
+        <v>4</v>
+      </c>
+      <c r="T25" s="13">
+        <v>3</v>
+      </c>
+      <c r="U25" s="13">
+        <v>3</v>
+      </c>
+      <c r="V25" s="13">
+        <v>3</v>
+      </c>
+      <c r="W25" s="13">
+        <v>3</v>
+      </c>
+      <c r="X25" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
@@ -4270,6 +4300,36 @@
       <c r="Q26" s="13">
         <v>4</v>
       </c>
+      <c r="R26" s="13">
+        <v>4</v>
+      </c>
+      <c r="S26" s="13">
+        <v>4</v>
+      </c>
+      <c r="T26" s="13">
+        <v>4</v>
+      </c>
+      <c r="U26" s="13">
+        <v>4</v>
+      </c>
+      <c r="V26" s="13">
+        <v>4</v>
+      </c>
+      <c r="W26" s="13">
+        <v>4</v>
+      </c>
+      <c r="X26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
@@ -4279,7 +4339,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E27" s="13">
         <v>6</v>
@@ -4413,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E28" s="13">
         <v>5</v>
@@ -4598,6 +4658,36 @@
       <c r="Q30" s="13">
         <v>3</v>
       </c>
+      <c r="R30" s="13">
+        <v>3</v>
+      </c>
+      <c r="S30" s="13">
+        <v>3</v>
+      </c>
+      <c r="T30" s="13">
+        <v>3</v>
+      </c>
+      <c r="U30" s="13">
+        <v>3</v>
+      </c>
+      <c r="V30" s="13">
+        <v>3</v>
+      </c>
+      <c r="W30" s="13">
+        <v>3</v>
+      </c>
+      <c r="X30" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -4648,6 +4738,36 @@
       <c r="Q31" s="13">
         <v>4</v>
       </c>
+      <c r="R31" s="13">
+        <v>4</v>
+      </c>
+      <c r="S31" s="13">
+        <v>4</v>
+      </c>
+      <c r="T31" s="13">
+        <v>4</v>
+      </c>
+      <c r="U31" s="13">
+        <v>4</v>
+      </c>
+      <c r="V31" s="13">
+        <v>4</v>
+      </c>
+      <c r="W31" s="13">
+        <v>4</v>
+      </c>
+      <c r="X31" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -4698,6 +4818,36 @@
       <c r="Q32" s="13">
         <v>2</v>
       </c>
+      <c r="R32" s="13">
+        <v>2</v>
+      </c>
+      <c r="S32" s="13">
+        <v>2</v>
+      </c>
+      <c r="T32" s="13">
+        <v>2</v>
+      </c>
+      <c r="U32" s="13">
+        <v>2</v>
+      </c>
+      <c r="V32" s="13">
+        <v>2</v>
+      </c>
+      <c r="W32" s="13">
+        <v>2</v>
+      </c>
+      <c r="X32" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -4748,6 +4898,36 @@
       <c r="Q33" s="13">
         <v>2</v>
       </c>
+      <c r="R33" s="13">
+        <v>2</v>
+      </c>
+      <c r="S33" s="13">
+        <v>2</v>
+      </c>
+      <c r="T33" s="13">
+        <v>2</v>
+      </c>
+      <c r="U33" s="13">
+        <v>2</v>
+      </c>
+      <c r="V33" s="13">
+        <v>2</v>
+      </c>
+      <c r="W33" s="13">
+        <v>2</v>
+      </c>
+      <c r="X33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -4798,6 +4978,36 @@
       <c r="Q34" s="13">
         <v>4</v>
       </c>
+      <c r="R34" s="13">
+        <v>4</v>
+      </c>
+      <c r="S34" s="13">
+        <v>4</v>
+      </c>
+      <c r="T34" s="13">
+        <v>4</v>
+      </c>
+      <c r="U34" s="13">
+        <v>4</v>
+      </c>
+      <c r="V34" s="13">
+        <v>4</v>
+      </c>
+      <c r="W34" s="13">
+        <v>4</v>
+      </c>
+      <c r="X34" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -4846,6 +5056,36 @@
         <v>6</v>
       </c>
       <c r="Q35" s="13">
+        <v>6</v>
+      </c>
+      <c r="R35" s="13">
+        <v>6</v>
+      </c>
+      <c r="S35" s="13">
+        <v>6</v>
+      </c>
+      <c r="T35" s="13">
+        <v>6</v>
+      </c>
+      <c r="U35" s="13">
+        <v>6</v>
+      </c>
+      <c r="V35" s="13">
+        <v>6</v>
+      </c>
+      <c r="W35" s="13">
+        <v>6</v>
+      </c>
+      <c r="X35" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AA35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -4865,7 +5105,7 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
@@ -4921,43 +5161,43 @@
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S37" s="13">
         <f t="shared" ref="S37" si="4">SUM(S6:S36)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="T37" s="13">
         <f t="shared" ref="T37" si="5">SUM(T6:T36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U37" s="13">
         <f t="shared" ref="U37" si="6">SUM(U6:U36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V37" s="13">
         <f t="shared" ref="V37" si="7">SUM(V6:V36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W37" s="13">
         <f t="shared" ref="W37" si="8">SUM(W6:W36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X37" s="13">
         <f t="shared" ref="X37" si="9">SUM(X6:X36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y37" s="13">
         <f t="shared" ref="Y37" si="10">SUM(Y6:Y36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z37" s="13">
         <f t="shared" ref="Z37" si="11">SUM(Z6:Z36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA37" s="13">
         <f t="shared" ref="AA37" si="12">SUM(AA6:AA36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB37" s="13">
         <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD827F91-19CC-4C26-AEE0-936D3188F39E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F3A59-D49A-42AC-8ABC-80AA306F6E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Mijlpaal 1</t>
-  </si>
-  <si>
-    <t>started 04/03/2021</t>
   </si>
   <si>
     <t>Mijlpaal 2</t>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Maak Place View</t>
+  </si>
+  <si>
+    <t>started 22/04/2021</t>
   </si>
 </sst>
 </file>
@@ -699,22 +699,22 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="Q19" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1947,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="T2" s="5"/>
     </row>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -2389,10 +2389,10 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="14">
         <v>1</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
@@ -2792,7 +2792,7 @@
     <row r="11" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
@@ -3203,10 +3203,10 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
@@ -3338,7 +3338,7 @@
     <row r="16" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="14">
         <v>1</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -3749,10 +3749,10 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
@@ -3884,7 +3884,7 @@
     <row r="21" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3894,10 +3894,10 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
@@ -4163,7 +4163,7 @@
     <row r="24" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -4173,13 +4173,13 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="14">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="13">
         <v>6</v>
@@ -4249,14 +4249,32 @@
       </c>
       <c r="AA25" s="13">
         <v>3</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
@@ -4328,15 +4346,33 @@
         <v>4</v>
       </c>
       <c r="AA26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
@@ -4467,10 +4503,10 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="14">
         <v>1</v>
@@ -4602,7 +4638,7 @@
     <row r="29" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -4611,10 +4647,10 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="14">
         <v>0</v>
@@ -4686,15 +4722,33 @@
         <v>3</v>
       </c>
       <c r="AA30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -4766,15 +4820,33 @@
         <v>4</v>
       </c>
       <c r="AA31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="14">
         <v>0.5</v>
@@ -4846,15 +4918,33 @@
         <v>2</v>
       </c>
       <c r="AA32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
@@ -4926,16 +5016,34 @@
         <v>2</v>
       </c>
       <c r="AA33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="D34" s="14">
         <v>0</v>
       </c>
@@ -5006,15 +5114,33 @@
         <v>4</v>
       </c>
       <c r="AA34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="14">
         <v>0</v>
@@ -5086,13 +5212,31 @@
         <v>6</v>
       </c>
       <c r="AA35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AG35" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -5101,11 +5245,11 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
@@ -5201,27 +5345,27 @@
       </c>
       <c r="AB37" s="13">
         <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC37" s="13">
         <f t="shared" ref="AC37" si="14">SUM(AC6:AC36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD37" s="13">
         <f t="shared" ref="AD37" si="15">SUM(AD6:AD36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE37" s="13">
         <f t="shared" ref="AE37" si="16">SUM(AE6:AE36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF37" s="13">
         <f t="shared" ref="AF37" si="17">SUM(AF6:AF36)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG37" s="13">
         <f t="shared" ref="AG37" si="18">SUM(AG6:AG36)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH37" s="13">
         <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F3A59-D49A-42AC-8ABC-80AA306F6E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BD3AF-54A5-4C60-87B1-15E846BE5167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -630,94 +630,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>86</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q19" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4182,90 +4182,93 @@
         <v>0.75</v>
       </c>
       <c r="E25" s="13">
+        <v>8</v>
+      </c>
+      <c r="F25" s="13">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13">
+        <v>8</v>
+      </c>
+      <c r="I25" s="13">
+        <v>8</v>
+      </c>
+      <c r="J25" s="13">
+        <v>8</v>
+      </c>
+      <c r="K25" s="13">
+        <v>8</v>
+      </c>
+      <c r="L25" s="13">
+        <v>8</v>
+      </c>
+      <c r="M25" s="13">
+        <v>8</v>
+      </c>
+      <c r="N25" s="13">
+        <v>8</v>
+      </c>
+      <c r="O25" s="13">
+        <v>8</v>
+      </c>
+      <c r="P25" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>8</v>
+      </c>
+      <c r="R25" s="13">
         <v>6</v>
       </c>
-      <c r="F25" s="13">
+      <c r="S25" s="13">
         <v>6</v>
       </c>
-      <c r="G25" s="13">
-        <v>6</v>
-      </c>
-      <c r="H25" s="13">
-        <v>6</v>
-      </c>
-      <c r="I25" s="13">
-        <v>6</v>
-      </c>
-      <c r="J25" s="13">
-        <v>6</v>
-      </c>
-      <c r="K25" s="13">
-        <v>6</v>
-      </c>
-      <c r="L25" s="13">
-        <v>6</v>
-      </c>
-      <c r="M25" s="13">
-        <v>6</v>
-      </c>
-      <c r="N25" s="13">
-        <v>6</v>
-      </c>
-      <c r="O25" s="13">
-        <v>6</v>
-      </c>
-      <c r="P25" s="13">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>6</v>
-      </c>
-      <c r="R25" s="13">
-        <v>4</v>
-      </c>
-      <c r="S25" s="13">
-        <v>4</v>
-      </c>
       <c r="T25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE25" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF25" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG25" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH25" s="13">
         <v>2</v>
       </c>
     </row>
@@ -4742,6 +4745,9 @@
       <c r="AG30" s="13">
         <v>3</v>
       </c>
+      <c r="AH30" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -4840,6 +4846,9 @@
       <c r="AG31" s="13">
         <v>4</v>
       </c>
+      <c r="AH31" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -4852,91 +4861,91 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="13">
+        <v>10</v>
+      </c>
+      <c r="F32" s="13">
+        <v>7</v>
+      </c>
+      <c r="G32" s="13">
+        <v>7</v>
+      </c>
+      <c r="H32" s="13">
+        <v>7</v>
+      </c>
+      <c r="I32" s="13">
+        <v>7</v>
+      </c>
+      <c r="J32" s="13">
+        <v>7</v>
+      </c>
+      <c r="K32" s="13">
+        <v>7</v>
+      </c>
+      <c r="L32" s="13">
+        <v>7</v>
+      </c>
+      <c r="M32" s="13">
         <v>5</v>
       </c>
-      <c r="F32" s="13">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13">
-        <v>2</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2</v>
-      </c>
-      <c r="I32" s="13">
-        <v>2</v>
-      </c>
-      <c r="J32" s="13">
-        <v>2</v>
-      </c>
-      <c r="K32" s="13">
-        <v>2</v>
-      </c>
-      <c r="L32" s="13">
-        <v>2</v>
-      </c>
-      <c r="M32" s="13">
-        <v>2</v>
-      </c>
       <c r="N32" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P32" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG32" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
@@ -5036,6 +5045,9 @@
       <c r="AG33" s="13">
         <v>2</v>
       </c>
+      <c r="AH33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -5134,6 +5146,9 @@
       <c r="AG34" s="13">
         <v>4</v>
       </c>
+      <c r="AH34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -5230,6 +5245,9 @@
         <v>6</v>
       </c>
       <c r="AG35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -5253,123 +5271,123 @@
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S37" s="13">
         <f t="shared" ref="S37" si="4">SUM(S6:S36)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T37" s="13">
         <f t="shared" ref="T37" si="5">SUM(T6:T36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U37" s="13">
         <f t="shared" ref="U37" si="6">SUM(U6:U36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="V37" s="13">
         <f t="shared" ref="V37" si="7">SUM(V6:V36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="W37" s="13">
         <f t="shared" ref="W37" si="8">SUM(W6:W36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X37" s="13">
         <f t="shared" ref="X37" si="9">SUM(X6:X36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y37" s="13">
         <f t="shared" ref="Y37" si="10">SUM(Y6:Y36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z37" s="13">
         <f t="shared" ref="Z37" si="11">SUM(Z6:Z36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA37" s="13">
         <f t="shared" ref="AA37" si="12">SUM(AA6:AA36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB37" s="13">
         <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC37" s="13">
         <f t="shared" ref="AC37" si="14">SUM(AC6:AC36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD37" s="13">
         <f t="shared" ref="AD37" si="15">SUM(AD6:AD36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE37" s="13">
         <f t="shared" ref="AE37" si="16">SUM(AE6:AE36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF37" s="13">
         <f t="shared" ref="AF37" si="17">SUM(AF6:AF36)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AG37" s="13">
         <f t="shared" ref="AG37" si="18">SUM(AG6:AG36)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AH37" s="13">
         <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI37" s="13">
         <f t="shared" ref="AI37" si="20">SUM(AI6:AI36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115BD3AF-54A5-4C60-87B1-15E846BE5167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813320E-52C9-476C-8632-EA128CA882ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -717,19 +717,19 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,6 +4271,18 @@
       <c r="AH25" s="13">
         <v>2</v>
       </c>
+      <c r="AI25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -4368,6 +4380,21 @@
       </c>
       <c r="AG26" s="13">
         <v>4</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
@@ -4748,6 +4775,18 @@
       <c r="AH30" s="13">
         <v>3</v>
       </c>
+      <c r="AI30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -4849,6 +4888,18 @@
       <c r="AH31" s="13">
         <v>3</v>
       </c>
+      <c r="AI31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
@@ -4947,6 +4998,21 @@
       <c r="AG32" s="13">
         <v>4</v>
       </c>
+      <c r="AH32" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
@@ -5048,6 +5114,18 @@
       <c r="AH33" s="13">
         <v>2</v>
       </c>
+      <c r="AI33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
@@ -5149,6 +5227,18 @@
       <c r="AH34" s="13">
         <v>4</v>
       </c>
+      <c r="AI34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -5248,6 +5338,18 @@
         <v>6</v>
       </c>
       <c r="AH35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AL35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -5387,23 +5489,23 @@
       </c>
       <c r="AH37" s="13">
         <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI37" s="13">
         <f t="shared" ref="AI37" si="20">SUM(AI6:AI36)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AJ37" s="13">
         <f t="shared" ref="AJ37" si="21">SUM(AJ6:AJ36)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK37" s="13">
         <f t="shared" ref="AK37" si="22">SUM(AK6:AK36)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL37" s="13">
         <f t="shared" ref="AL37" si="23">SUM(AL6:AL36)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM37" s="13">
         <f t="shared" ref="AM37" si="24">SUM(AM6:AM36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813320E-52C9-476C-8632-EA128CA882ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051E39E2-4275-4461-B03B-0A410FBBE042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -359,7 +350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -630,103 +621,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>26</c:v>
@@ -747,7 +738,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -1609,7 +1600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1907,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,112 +4280,133 @@
         <v>31</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG26" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH26" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI26" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ26" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK26" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL26" s="13">
         <v>2</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
@@ -4796,103 +4808,103 @@
         <v>10</v>
       </c>
       <c r="D31" s="14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E31" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H31" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I31" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J31" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K31" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L31" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M31" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N31" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG31" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH31" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI31" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ31" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK31" s="13">
         <v>3</v>
@@ -5369,139 +5381,139 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S37" s="13">
         <f t="shared" ref="S37" si="4">SUM(S6:S36)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="T37" s="13">
         <f t="shared" ref="T37" si="5">SUM(T6:T36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U37" s="13">
         <f t="shared" ref="U37" si="6">SUM(U6:U36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V37" s="13">
         <f t="shared" ref="V37" si="7">SUM(V6:V36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W37" s="13">
         <f t="shared" ref="W37" si="8">SUM(W6:W36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X37" s="13">
         <f t="shared" ref="X37" si="9">SUM(X6:X36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y37" s="13">
         <f t="shared" ref="Y37" si="10">SUM(Y6:Y36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z37" s="13">
         <f t="shared" ref="Z37" si="11">SUM(Z6:Z36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA37" s="13">
         <f t="shared" ref="AA37" si="12">SUM(AA6:AA36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB37" s="13">
         <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AC37" s="13">
         <f t="shared" ref="AC37" si="14">SUM(AC6:AC36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AD37" s="13">
         <f t="shared" ref="AD37" si="15">SUM(AD6:AD36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AE37" s="13">
         <f t="shared" ref="AE37" si="16">SUM(AE6:AE36)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AF37" s="13">
         <f t="shared" ref="AF37" si="17">SUM(AF6:AF36)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AG37" s="13">
         <f t="shared" ref="AG37" si="18">SUM(AG6:AG36)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AH37" s="13">
         <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AI37" s="13">
         <f t="shared" ref="AI37" si="20">SUM(AI6:AI36)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AJ37" s="13">
         <f t="shared" ref="AJ37" si="21">SUM(AJ6:AJ36)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AK37" s="13">
         <f t="shared" ref="AK37" si="22">SUM(AK6:AK36)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL37" s="13">
         <f t="shared" ref="AL37" si="23">SUM(AL6:AL36)</f>
@@ -5529,7 +5541,7 @@
       </c>
       <c r="AR37" s="13">
         <f t="shared" ref="AR37" si="29">SUM(AR6:AR36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS37" s="13">
         <f t="shared" ref="AS37" si="30">SUM(AS6:AS36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project ogp1\project-groep_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051E39E2-4275-4461-B03B-0A410FBBE042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F5007-A860-479B-991B-EEFC7F022EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -350,7 +359,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +382,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -621,109 +630,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1600,7 +1609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1898,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AN30" sqref="AN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,106 +4182,127 @@
         <v>0.75</v>
       </c>
       <c r="E25" s="13">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13">
+        <v>10</v>
+      </c>
+      <c r="G25" s="13">
+        <v>10</v>
+      </c>
+      <c r="H25" s="13">
+        <v>10</v>
+      </c>
+      <c r="I25" s="13">
+        <v>10</v>
+      </c>
+      <c r="J25" s="13">
+        <v>10</v>
+      </c>
+      <c r="K25" s="13">
+        <v>10</v>
+      </c>
+      <c r="L25" s="13">
+        <v>10</v>
+      </c>
+      <c r="M25" s="13">
+        <v>10</v>
+      </c>
+      <c r="N25" s="13">
+        <v>10</v>
+      </c>
+      <c r="O25" s="13">
+        <v>10</v>
+      </c>
+      <c r="P25" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>10</v>
+      </c>
+      <c r="R25" s="13">
         <v>8</v>
       </c>
-      <c r="F25" s="13">
+      <c r="S25" s="13">
         <v>8</v>
       </c>
-      <c r="G25" s="13">
-        <v>8</v>
-      </c>
-      <c r="H25" s="13">
-        <v>8</v>
-      </c>
-      <c r="I25" s="13">
-        <v>8</v>
-      </c>
-      <c r="J25" s="13">
-        <v>8</v>
-      </c>
-      <c r="K25" s="13">
-        <v>8</v>
-      </c>
-      <c r="L25" s="13">
-        <v>8</v>
-      </c>
-      <c r="M25" s="13">
-        <v>8</v>
-      </c>
-      <c r="N25" s="13">
-        <v>8</v>
-      </c>
-      <c r="O25" s="13">
-        <v>8</v>
-      </c>
-      <c r="P25" s="13">
-        <v>8</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>8</v>
-      </c>
-      <c r="R25" s="13">
-        <v>6</v>
-      </c>
-      <c r="S25" s="13">
-        <v>6</v>
-      </c>
       <c r="T25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE25" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF25" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG25" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH25" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ25" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK25" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL25" s="13">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
@@ -4695,7 +4725,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="14">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="E30" s="13">
         <v>8</v>
@@ -4798,6 +4828,9 @@
       </c>
       <c r="AL30" s="13">
         <v>3</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5381,147 +5414,147 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.8</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S37" s="13">
         <f t="shared" ref="S37" si="4">SUM(S6:S36)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T37" s="13">
         <f t="shared" ref="T37" si="5">SUM(T6:T36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U37" s="13">
         <f t="shared" ref="U37" si="6">SUM(U6:U36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V37" s="13">
         <f t="shared" ref="V37" si="7">SUM(V6:V36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W37" s="13">
         <f t="shared" ref="W37" si="8">SUM(W6:W36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X37" s="13">
         <f t="shared" ref="X37" si="9">SUM(X6:X36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Y37" s="13">
         <f t="shared" ref="Y37" si="10">SUM(Y6:Y36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z37" s="13">
         <f t="shared" ref="Z37" si="11">SUM(Z6:Z36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA37" s="13">
         <f t="shared" ref="AA37" si="12">SUM(AA6:AA36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB37" s="13">
         <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC37" s="13">
         <f t="shared" ref="AC37" si="14">SUM(AC6:AC36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AD37" s="13">
         <f t="shared" ref="AD37" si="15">SUM(AD6:AD36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AE37" s="13">
         <f t="shared" ref="AE37" si="16">SUM(AE6:AE36)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF37" s="13">
         <f t="shared" ref="AF37" si="17">SUM(AF6:AF36)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG37" s="13">
         <f t="shared" ref="AG37" si="18">SUM(AG6:AG36)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH37" s="13">
         <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AI37" s="13">
         <f t="shared" ref="AI37" si="20">SUM(AI6:AI36)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AJ37" s="13">
         <f t="shared" ref="AJ37" si="21">SUM(AJ6:AJ36)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AK37" s="13">
         <f t="shared" ref="AK37" si="22">SUM(AK6:AK36)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL37" s="13">
         <f t="shared" ref="AL37" si="23">SUM(AL6:AL36)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM37" s="13">
         <f t="shared" ref="AM37" si="24">SUM(AM6:AM36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="13">
         <f t="shared" ref="AN37" si="25">SUM(AN6:AN36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F5007-A860-479B-991B-EEFC7F022EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94967A8B-B7E9-482E-B5DF-7714CF57EA11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -630,115 +630,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>73</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -747,7 +747,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AN30" sqref="AN30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="13">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>1</v>
       </c>
       <c r="E22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="13">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E25" s="13">
         <v>10</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="13">
         <v>0</v>
@@ -4725,112 +4725,130 @@
         <v>11</v>
       </c>
       <c r="D30" s="14">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="E30" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F30" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G30" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H30" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I30" s="13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J30" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K30" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L30" s="13">
+        <v>9</v>
+      </c>
+      <c r="M30" s="13">
+        <v>7</v>
+      </c>
+      <c r="N30" s="13">
+        <v>7</v>
+      </c>
+      <c r="O30" s="13">
         <v>5</v>
       </c>
-      <c r="M30" s="13">
+      <c r="P30" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>5</v>
+      </c>
+      <c r="R30" s="13">
+        <v>5</v>
+      </c>
+      <c r="S30" s="13">
+        <v>5</v>
+      </c>
+      <c r="T30" s="13">
+        <v>5</v>
+      </c>
+      <c r="U30" s="13">
+        <v>5</v>
+      </c>
+      <c r="V30" s="13">
+        <v>5</v>
+      </c>
+      <c r="W30" s="13">
+        <v>5</v>
+      </c>
+      <c r="X30" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>4</v>
+      </c>
+      <c r="AN30" s="13">
         <v>3</v>
       </c>
-      <c r="N30" s="13">
-        <v>3</v>
-      </c>
-      <c r="O30" s="13">
-        <v>3</v>
-      </c>
-      <c r="P30" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>3</v>
-      </c>
-      <c r="R30" s="13">
-        <v>3</v>
-      </c>
-      <c r="S30" s="13">
-        <v>3</v>
-      </c>
-      <c r="T30" s="13">
-        <v>3</v>
-      </c>
-      <c r="U30" s="13">
-        <v>3</v>
-      </c>
-      <c r="V30" s="13">
-        <v>3</v>
-      </c>
-      <c r="W30" s="13">
-        <v>3</v>
-      </c>
-      <c r="X30" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AC30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AE30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AK30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AL30" s="13">
-        <v>3</v>
-      </c>
-      <c r="AM30" s="13">
-        <v>1</v>
+      <c r="AO30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4841,109 +4859,130 @@
         <v>10</v>
       </c>
       <c r="D31" s="14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E31" s="13">
+        <v>15</v>
+      </c>
+      <c r="F31" s="13">
+        <v>15</v>
+      </c>
+      <c r="G31" s="13">
         <v>13</v>
       </c>
-      <c r="F31" s="13">
+      <c r="H31" s="13">
         <v>13</v>
       </c>
-      <c r="G31" s="13">
+      <c r="I31" s="13">
+        <v>13</v>
+      </c>
+      <c r="J31" s="13">
+        <v>13</v>
+      </c>
+      <c r="K31" s="13">
+        <v>13</v>
+      </c>
+      <c r="L31" s="13">
+        <v>13</v>
+      </c>
+      <c r="M31" s="13">
         <v>11</v>
       </c>
-      <c r="H31" s="13">
+      <c r="N31" s="13">
         <v>11</v>
       </c>
-      <c r="I31" s="13">
-        <v>11</v>
-      </c>
-      <c r="J31" s="13">
-        <v>11</v>
-      </c>
-      <c r="K31" s="13">
-        <v>11</v>
-      </c>
-      <c r="L31" s="13">
-        <v>11</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="O31" s="13">
         <v>9</v>
       </c>
-      <c r="N31" s="13">
+      <c r="P31" s="13">
         <v>9</v>
       </c>
-      <c r="O31" s="13">
-        <v>7</v>
-      </c>
-      <c r="P31" s="13">
-        <v>7</v>
-      </c>
       <c r="Q31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG31" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH31" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI31" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ31" s="13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK31" s="13">
+        <v>5</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>5</v>
+      </c>
+      <c r="AM31" s="13">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="13">
         <v>3</v>
       </c>
-      <c r="AL31" s="13">
-        <v>3</v>
+      <c r="AO31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -4951,10 +4990,10 @@
         <v>33</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D32" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="13">
         <v>10</v>
@@ -5057,6 +5096,27 @@
       </c>
       <c r="AL32" s="13">
         <v>4</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
@@ -5067,10 +5127,10 @@
         <v>11</v>
       </c>
       <c r="D33" s="14">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E33" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="13">
         <v>2</v>
@@ -5170,6 +5230,15 @@
       </c>
       <c r="AL33" s="13">
         <v>2</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
@@ -5284,6 +5353,12 @@
       <c r="AL34" s="13">
         <v>4</v>
       </c>
+      <c r="AM34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
@@ -5395,6 +5470,12 @@
         <v>6</v>
       </c>
       <c r="AL35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN35" s="13">
         <v>6</v>
       </c>
     </row>
@@ -5414,155 +5495,155 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.83479999999999999</v>
+        <v>0.89319999999999988</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" ref="F37:Q37" si="1">SUM(F6:F36)</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37:I37" si="2">SUM(H6:H36)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J37" s="13">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R37" s="13">
         <f t="shared" ref="R37" si="3">SUM(R6:R36)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S37" s="13">
         <f t="shared" ref="S37" si="4">SUM(S6:S36)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T37" s="13">
         <f t="shared" ref="T37" si="5">SUM(T6:T36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U37" s="13">
         <f t="shared" ref="U37" si="6">SUM(U6:U36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="V37" s="13">
         <f t="shared" ref="V37" si="7">SUM(V6:V36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="W37" s="13">
         <f t="shared" ref="W37" si="8">SUM(W6:W36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="X37" s="13">
         <f t="shared" ref="X37" si="9">SUM(X6:X36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Y37" s="13">
         <f t="shared" ref="Y37" si="10">SUM(Y6:Y36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Z37" s="13">
         <f t="shared" ref="Z37" si="11">SUM(Z6:Z36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AA37" s="13">
         <f t="shared" ref="AA37" si="12">SUM(AA6:AA36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB37" s="13">
         <f t="shared" ref="AB37" si="13">SUM(AB6:AB36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AC37" s="13">
         <f t="shared" ref="AC37" si="14">SUM(AC6:AC36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD37" s="13">
         <f t="shared" ref="AD37" si="15">SUM(AD6:AD36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AE37" s="13">
         <f t="shared" ref="AE37" si="16">SUM(AE6:AE36)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AF37" s="13">
         <f t="shared" ref="AF37" si="17">SUM(AF6:AF36)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG37" s="13">
         <f t="shared" ref="AG37" si="18">SUM(AG6:AG36)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AH37" s="13">
         <f t="shared" ref="AH37" si="19">SUM(AH6:AH36)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AI37" s="13">
         <f t="shared" ref="AI37" si="20">SUM(AI6:AI36)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJ37" s="13">
         <f t="shared" ref="AJ37" si="21">SUM(AJ6:AJ36)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AK37" s="13">
         <f t="shared" ref="AK37" si="22">SUM(AK6:AK36)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL37" s="13">
         <f t="shared" ref="AL37" si="23">SUM(AL6:AL36)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AM37" s="13">
         <f t="shared" ref="AM37" si="24">SUM(AM6:AM36)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AN37" s="13">
         <f t="shared" ref="AN37" si="25">SUM(AN6:AN36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO37" s="13">
         <f t="shared" ref="AO37" si="26">SUM(AO6:AO36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="13">
         <f t="shared" ref="AP37" si="27">SUM(AP6:AP36)</f>
@@ -5574,7 +5655,7 @@
       </c>
       <c r="AR37" s="13">
         <f t="shared" ref="AR37" si="29">SUM(AR6:AR36)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="13">
         <f t="shared" ref="AS37" si="30">SUM(AS6:AS36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94967A8B-B7E9-482E-B5DF-7714CF57EA11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051858F4-F983-417D-A3BF-562F6E834938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -1908,7 +1908,7 @@
   <dimension ref="A1:AS37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="14">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="E33" s="13">
         <v>3</v>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.89319999999999988</v>
+        <v>0.90639999999999998</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051858F4-F983-417D-A3BF-562F6E834938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5183845-6D7A-405C-8493-F0D782511C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -738,13 +738,13 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5127,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="14">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="E33" s="13">
         <v>3</v>
@@ -5239,6 +5239,18 @@
       </c>
       <c r="AO33" s="13">
         <v>1</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
@@ -5249,7 +5261,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="13">
         <v>4</v>
@@ -5358,6 +5370,21 @@
       </c>
       <c r="AN34" s="13">
         <v>4</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>4</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
@@ -5368,7 +5395,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="13">
         <v>6</v>
@@ -5477,6 +5504,21 @@
       </c>
       <c r="AN35" s="13">
         <v>6</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>6</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:45" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -5495,7 +5537,7 @@
       </c>
       <c r="D37" s="14">
         <f>SUM(D5:D35)/25</f>
-        <v>0.90639999999999998</v>
+        <v>1</v>
       </c>
       <c r="E37" s="13">
         <f>SUM(E6:E36)</f>
@@ -5643,15 +5685,15 @@
       </c>
       <c r="AO37" s="13">
         <f t="shared" ref="AO37" si="26">SUM(AO6:AO36)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AP37" s="13">
         <f t="shared" ref="AP37" si="27">SUM(AP6:AP36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ37" s="13">
         <f t="shared" ref="AQ37" si="28">SUM(AQ6:AQ36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR37" s="13">
         <f t="shared" ref="AR37" si="29">SUM(AR6:AR36)</f>

--- a/backlog_project.xlsx
+++ b/backlog_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\project-groep_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5183845-6D7A-405C-8493-F0D782511C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0CABB6-BC0C-4F82-BEA2-D21137BD0F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7A0AC40-04B9-4F77-9D38-CCE5C3D4FB7D}"/>
   </bookViews>
@@ -741,10 +741,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40880F0-B5E8-4115-9C74-D48698FDE8C6}">
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="AP35" sqref="AP35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AS32" sqref="AS32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5378,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="AQ34" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR34" s="13">
         <v>0</v>
@@ -5509,10 +5509,10 @@
         <v>6</v>
       </c>
       <c r="AP35" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR35" s="13">
         <v>0</v>
@@ -5689,11 +5689,11 @@
       </c>
       <c r="AP37" s="13">
         <f t="shared" ref="AP37" si="27">SUM(AP6:AP36)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ37" s="13">
         <f t="shared" ref="AQ37" si="28">SUM(AQ6:AQ36)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AR37" s="13">
         <f t="shared" ref="AR37" si="29">SUM(AR6:AR36)</f>
